--- a/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_OrdenadasFecha_1_ASC.xlsx
+++ b/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_OrdenadasFecha_1_ASC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarciar\Documents\CAIXA\AutoHotKeyEGR\Datos_Prueba\Resultados\Test_FMT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0329C8CE-1650-4F60-B23A-8D33015E2703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49E2C6C0-C22C-416A-AE80-67FD9BC2A32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{A136818A-766F-4096-BE18-035C75229D2F}"/>
+    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{32D03D21-EB69-4790-9A64-590AA2528AAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,6 +86,60 @@
     <t>jsmith@itsolutions.co.uk</t>
   </si>
   <si>
+    <t>Derrick</t>
+  </si>
+  <si>
+    <t>Timepath Inc.</t>
+  </si>
+  <si>
+    <t>99 Shire Oak Road</t>
+  </si>
+  <si>
+    <t>dderrick@timepath.co.uk</t>
+  </si>
+  <si>
+    <t>Hamm</t>
+  </si>
+  <si>
+    <t>Sugarwell</t>
+  </si>
+  <si>
+    <t>Advisor</t>
+  </si>
+  <si>
+    <t>10 Dam Road</t>
+  </si>
+  <si>
+    <t>shamm@sugarwell.org</t>
+  </si>
+  <si>
+    <t>Shelby</t>
+  </si>
+  <si>
+    <t>TechDev</t>
+  </si>
+  <si>
+    <t>HR Manager</t>
+  </si>
+  <si>
+    <t>19 Pineapple Boulevard</t>
+  </si>
+  <si>
+    <t>sshelby@techdev.com</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>87 Orange Street</t>
+  </si>
+  <si>
+    <t>lpalmer@timepath.co.uk</t>
+  </si>
+  <si>
     <t>Dorsey</t>
   </si>
   <si>
@@ -99,60 +153,6 @@
   </si>
   <si>
     <t>jdorsey@mc.com</t>
-  </si>
-  <si>
-    <t>Derrick</t>
-  </si>
-  <si>
-    <t>Timepath Inc.</t>
-  </si>
-  <si>
-    <t>99 Shire Oak Road</t>
-  </si>
-  <si>
-    <t>dderrick@timepath.co.uk</t>
-  </si>
-  <si>
-    <t>Hamm</t>
-  </si>
-  <si>
-    <t>Sugarwell</t>
-  </si>
-  <si>
-    <t>Advisor</t>
-  </si>
-  <si>
-    <t>10 Dam Road</t>
-  </si>
-  <si>
-    <t>shamm@sugarwell.org</t>
-  </si>
-  <si>
-    <t>Shelby</t>
-  </si>
-  <si>
-    <t>TechDev</t>
-  </si>
-  <si>
-    <t>HR Manager</t>
-  </si>
-  <si>
-    <t>19 Pineapple Boulevard</t>
-  </si>
-  <si>
-    <t>sshelby@techdev.com</t>
-  </si>
-  <si>
-    <t>Palmer</t>
-  </si>
-  <si>
-    <t>Programmer</t>
-  </si>
-  <si>
-    <t>87 Orange Street</t>
-  </si>
-  <si>
-    <t>lpalmer@timepath.co.uk</t>
   </si>
   <si>
     <t>Robertson</t>
@@ -525,7 +525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC885950-A549-4554-8617-7D941B40C0CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C9E3FA-7DFF-4E40-8A77-83D87A0834FB}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -603,7 +603,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>44337</v>
+        <v>45425</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -612,30 +612,30 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4">
-        <v>40791345621</v>
+        <v>40799885412</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>45425</v>
+        <v>45427</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -644,12 +644,12 @@
         <v>24</v>
       </c>
       <c r="G5">
-        <v>40799885412</v>
+        <v>40712462257</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>45427</v>
+        <v>45430</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -667,30 +667,30 @@
         <v>29</v>
       </c>
       <c r="G6">
-        <v>40712462257</v>
+        <v>40741785214</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>45430</v>
+        <v>45460</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
       <c r="G7">
-        <v>40741785214</v>
+        <v>40731653845</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -698,10 +698,10 @@
         <v>45460</v>
       </c>
       <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
@@ -713,7 +713,7 @@
         <v>38</v>
       </c>
       <c r="G8">
-        <v>40731653845</v>
+        <v>40791345621</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -724,7 +724,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
